--- a/Excelsheet/Vabro_TestData.xlsx
+++ b/Excelsheet/Vabro_TestData.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edusys\Documents\GitHub\Vabro_Testscripts\Excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8D56B9-54B7-498E-B005-350493137638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93170B0E-00C0-4108-A7AE-34A44EC3F6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Company_Address" sheetId="5" r:id="rId2"/>
     <sheet name="Company_Details" sheetId="4" r:id="rId3"/>
+    <sheet name="Registration" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Password</t>
   </si>
@@ -180,12 +181,51 @@
   <si>
     <t>751016</t>
   </si>
+  <si>
+    <t>Email Address Register</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Confirm password</t>
+  </si>
+  <si>
+    <t>Automation1</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Automation2</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Tester1</t>
+  </si>
+  <si>
+    <t>tester2</t>
+  </si>
+  <si>
+    <t>Automationtester-test4@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automationtester-test5@mailinator.com</t>
+  </si>
+  <si>
+    <t>Automationtester-test09@mailinator.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +254,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,17 +280,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E10D5F-A401-4E2D-8410-5E4D4B804835}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -800,4 +851,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346A0DDD-07C7-48FE-9E3C-E8D6993933B4}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{F6878F6E-BC7B-4128-A71D-814F3053617C}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{33A1C3AD-79A5-4681-8E3A-7B30F992AC71}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{774CBD44-E8C1-428B-AC06-9A86B3F73D86}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{71EB2366-CC05-47BB-BE03-74618FD18A28}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{2D02ADAB-E2D7-43D7-93D8-0704FCDD6161}"/>
+    <hyperlink ref="A3" r:id="rId6" xr:uid="{F5B71ED4-6A64-40CF-B6AA-B2F71D21C868}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>